--- a/Tmp/languages_full_crs.xlsx
+++ b/Tmp/languages_full_crs.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$53</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -514,16 +517,16 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,359 +540,359 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>840638</v>
+      </c>
+      <c r="C2">
+        <v>742621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>99511</v>
+      </c>
+      <c r="C3">
+        <v>94648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>18398</v>
+      </c>
+      <c r="C4">
+        <v>63055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5641</v>
+      </c>
+      <c r="C5">
+        <v>19222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1300</v>
+      </c>
+      <c r="C6">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2322</v>
+      </c>
+      <c r="C7">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>2941</v>
+      </c>
+      <c r="C8">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>745</v>
+      </c>
+      <c r="C9">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>2663</v>
+      </c>
+      <c r="C10">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2725</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>766</v>
+      </c>
+      <c r="C15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1048</v>
+      </c>
+      <c r="C16">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1384</v>
+      </c>
+      <c r="C17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>518</v>
+      </c>
+      <c r="C18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>539</v>
+      </c>
+      <c r="C19">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B20">
         <v>244</v>
       </c>
-      <c r="C2">
+      <c r="C20">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>46</v>
-      </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>115</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>745</v>
-      </c>
-      <c r="C5">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>615</v>
+      </c>
+      <c r="C21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>380</v>
+      </c>
+      <c r="C22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>320</v>
+      </c>
+      <c r="C23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>723</v>
+      </c>
+      <c r="C24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>416</v>
+      </c>
+      <c r="C25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>404</v>
+      </c>
+      <c r="C26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>222</v>
+      </c>
+      <c r="C27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>137</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B32">
         <v>181</v>
       </c>
-      <c r="C6">
+      <c r="C32">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>293</v>
-      </c>
-      <c r="C7">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>409</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1384</v>
-      </c>
-      <c r="C9">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>5641</v>
-      </c>
-      <c r="C10">
-        <v>19222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>840638</v>
-      </c>
-      <c r="C11">
-        <v>742621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>18398</v>
-      </c>
-      <c r="C12">
-        <v>63055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>91</v>
-      </c>
-      <c r="C13">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>137</v>
-      </c>
-      <c r="C14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>341</v>
-      </c>
-      <c r="C15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>99511</v>
-      </c>
-      <c r="C16">
-        <v>94648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>49</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>2322</v>
-      </c>
-      <c r="C19">
-        <v>4466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+      <c r="B33">
         <v>313</v>
       </c>
-      <c r="C21">
+      <c r="C33">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>236</v>
-      </c>
-      <c r="C22">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>518</v>
-      </c>
-      <c r="C24">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>2941</v>
-      </c>
-      <c r="C26">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>119</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>58</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>84</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>222</v>
-      </c>
-      <c r="C32">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>320</v>
-      </c>
-      <c r="C33">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -900,216 +903,221 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>1300</v>
+        <v>341</v>
       </c>
       <c r="C35">
-        <v>6290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>2663</v>
+        <v>115</v>
       </c>
       <c r="C36">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="C38">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>2725</v>
-      </c>
-      <c r="C39">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>409</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>416</v>
-      </c>
-      <c r="C40">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>1048</v>
-      </c>
-      <c r="C41">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>539</v>
-      </c>
-      <c r="C42">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>75</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>106</v>
-      </c>
-      <c r="C45">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>723</v>
-      </c>
-      <c r="C46">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>85</v>
-      </c>
       <c r="C47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>766</v>
-      </c>
-      <c r="C48">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>615</v>
-      </c>
-      <c r="C49">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>64</v>
-      </c>
-      <c r="C50">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>134</v>
-      </c>
-      <c r="C51">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>380</v>
-      </c>
-      <c r="C52">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>87</v>
-      </c>
       <c r="C53">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C53">
+    <sortState ref="A2:C53">
+      <sortCondition descending="1" ref="C1:C53"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>